--- a/e2e/SiniestrosAutos_A004/Default.xlsx
+++ b/e2e/SiniestrosAutos_A004/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>MENU_TREE</t>
   </si>
@@ -23,18 +23,69 @@
     <t>SUBMENU_TREE</t>
   </si>
   <si>
+    <t>%A001</t>
+  </si>
+  <si>
     <t>SUBMANU2_TREE</t>
   </si>
   <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>CERTIFICADO</t>
+  </si>
+  <si>
+    <t>LISTA_GERENCIA_RESPONSABLE</t>
+  </si>
+  <si>
+    <t>BUSCAR_COBERTURA_CERTIFICADO</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
     <t>CONTRASENIA</t>
   </si>
   <si>
+    <t>DESCRIPCION_SINIESTRO</t>
+  </si>
+  <si>
+    <t>%070</t>
+  </si>
+  <si>
     <t>Corepp</t>
   </si>
   <si>
+    <t>LISTA_OFICINA</t>
+  </si>
+  <si>
+    <t>COLISION</t>
+  </si>
+  <si>
+    <t>QA - Siniestro colision A004</t>
+  </si>
+  <si>
+    <t>POLIZA</t>
+  </si>
+  <si>
+    <t>BUSCAR_RAMO_CERTIFICADO</t>
+  </si>
+  <si>
+    <t>LISTA_RAMO_CERTIFICADO</t>
+  </si>
+  <si>
     <t>Acsel;Reclamos</t>
   </si>
   <si>
+    <t>CODIGO_PRODUCTO</t>
+  </si>
+  <si>
+    <t>BUSCAR_CAUSAR_SINIESTRO</t>
+  </si>
+  <si>
+    <t>LISTA_OFICINA_SINIESTRO</t>
+  </si>
+  <si>
     <t>NAVEGADOR</t>
   </si>
   <si>
@@ -44,15 +95,39 @@
     <t>BASE_DE_DATOS</t>
   </si>
   <si>
+    <t>%006</t>
+  </si>
+  <si>
     <t>https://appbanorteqa/forms/frmservlet?config=acselx</t>
   </si>
   <si>
     <t>Acsel;Reclamos;Siniestros Generales</t>
   </si>
   <si>
+    <t>LISTA_OFICINA_RESPONS</t>
+  </si>
+  <si>
+    <t>LISTA_COBERTURA_CERTIFICADO</t>
+  </si>
+  <si>
     <t>USR11</t>
   </si>
   <si>
+    <t>LISTA_CAUSA_SINIESTRO</t>
+  </si>
+  <si>
+    <t>BUSCAR_GERENCIA_RESPONSABLE</t>
+  </si>
+  <si>
+    <t>%AUTOMOVILES</t>
+  </si>
+  <si>
+    <t>BUSCAR_OFICINA_RESPONS</t>
+  </si>
+  <si>
+    <t>OFICINA MONTERREY</t>
+  </si>
+  <si>
     <t>URL</t>
   </si>
   <si>
@@ -60,6 +135,12 @@
   </si>
   <si>
     <t>Mayo_2024</t>
+  </si>
+  <si>
+    <t>BUSCAR_OFICINA_SINIESTRO</t>
+  </si>
+  <si>
+    <t>BUSCAR_FOCINAS</t>
   </si>
 </sst>
 </file>
@@ -215,9 +296,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -226,7 +305,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -257,26 +338,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Hoja1" xfId="1"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -570,73 +662,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="19.3671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.078125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.41796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.96484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.60546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.8984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.3671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.078125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.41796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.96484375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.60546875" style="4" customWidth="1"/>
+    <col min="9" max="27" width="9.41796875" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="8.8984375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="T1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1000372</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="J3" s="5">
+        <v>1000373</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -653,7 +937,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customFormat="1"/>
